--- a/data/trans_orig/cron_index-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 0,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 1,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 0,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 0,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 0,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 0,94</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 0,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 0,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 0,94</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 1,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 1,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 1,18</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,68</t>
+          <t>0,52; 0,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 1,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,93</t>
+          <t>0,76; 1,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 1,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,77</t>
+          <t>0,67; 0,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 1,32</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 1,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 1,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 1,2</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 1,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 1,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 1,39</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 1,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 2,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 1,91</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 0,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 1,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 0,86</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 0,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 1,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 1,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/cron_index-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,52 +724,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,54</t>
+          <t>0,34; 0,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,71</t>
+          <t>0,44; 0,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,72</t>
+          <t>0,47; 0,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,04</t>
+          <t>0,75; 1,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,65</t>
+          <t>0,42; 0,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,86</t>
+          <t>0,61; 0,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,81</t>
+          <t>0,53; 0,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,93</t>
+          <t>0,7; 0,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,56</t>
+          <t>0,41; 0,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,74</t>
+          <t>0,55; 0,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 0,94</t>
+          <t>0,76; 0,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,27 +864,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,53</t>
+          <t>0,38; 0,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,73</t>
+          <t>0,51; 0,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,68</t>
+          <t>0,51; 0,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,97</t>
+          <t>0,73; 0,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,91</t>
+          <t>0,69; 0,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,17 +894,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,96</t>
+          <t>0,75; 0,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,97</t>
+          <t>0,76; 0,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,71</t>
+          <t>0,55; 0,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 0,79</t>
+          <t>0,65; 0,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,56</t>
+          <t>0,37; 0,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,87</t>
+          <t>0,58; 0,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,65</t>
+          <t>0,47; 0,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,18</t>
+          <t>0,85; 1,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,83</t>
+          <t>0,6; 0,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,06</t>
+          <t>0,76; 1,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,8</t>
+          <t>0,54; 0,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,27</t>
+          <t>0,98; 1,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,67</t>
+          <t>0,52; 0,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,92</t>
+          <t>0,71; 0,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,7</t>
+          <t>0,54; 0,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,18</t>
+          <t>0,97; 1,18</t>
         </is>
       </c>
     </row>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,6</t>
+          <t>0,4; 0,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,74</t>
+          <t>0,51; 0,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,87</t>
+          <t>0,61; 0,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,13</t>
+          <t>0,79; 1,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,77</t>
+          <t>0,57; 0,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,02</t>
+          <t>0,76; 1,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,0</t>
+          <t>0,74; 0,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,46</t>
+          <t>0,88; 1,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,32</t>
+          <t>0,88; 1,3</t>
         </is>
       </c>
     </row>
@@ -1284,57 +1284,57 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,66</t>
+          <t>0,41; 0,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,94</t>
+          <t>0,57; 0,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,68</t>
+          <t>0,43; 0,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,15</t>
+          <t>0,81; 1,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,05</t>
+          <t>0,63; 1,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,34</t>
+          <t>0,91; 1,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,97</t>
+          <t>0,64; 0,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,38</t>
+          <t>0,57; 1,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,79</t>
+          <t>0,56; 0,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,07</t>
+          <t>0,8; 1,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,78</t>
+          <t>0,57; 0,79</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,32 +1424,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,59</t>
+          <t>0,38; 0,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,94</t>
+          <t>0,66; 0,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,7</t>
+          <t>0,44; 0,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,49</t>
+          <t>1,14; 1,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,82</t>
+          <t>0,58; 0,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,13</t>
+          <t>0,81; 1,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,67</t>
+          <t>0,51; 0,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,19 +1474,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,74</t>
+          <t>0,55; 0,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,39</t>
+          <t>1,15; 1,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1569,22 +1569,22 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,75</t>
+          <t>0,56; 0,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,72</t>
+          <t>0,54; 0,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,08</t>
+          <t>0,82; 1,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,79</t>
+          <t>0,61; 0,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,32 +1594,32 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,78</t>
+          <t>0,59; 0,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,29</t>
+          <t>1,07; 2,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,65</t>
+          <t>0,54; 0,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,8</t>
+          <t>0,66; 0,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,73</t>
+          <t>0,59; 0,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,91</t>
+          <t>1,0; 1,99</t>
         </is>
       </c>
     </row>
@@ -1704,34 +1704,34 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,55; 0,71</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 0,59</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 0,72</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 0,79</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 0,87</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>0,55; 0,72</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 0,59</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 0,72</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 0,78</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 0,86</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 0,72</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,7; 0,89</t>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,62</t>
+          <t>0,52; 0,63</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,86</t>
+          <t>0,44; 0,86</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,94</t>
+          <t>0,67; 0,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,8</t>
+          <t>0,72; 0,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,17</t>
+          <t>0,9; 1,19</t>
         </is>
       </c>
     </row>
